--- a/data/pca/factorExposure/factorExposure_2015-11-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01559053792748567</v>
+        <v>0.01272740980699796</v>
       </c>
       <c r="C2">
-        <v>-0.02804361257666935</v>
+        <v>0.03551780565753241</v>
       </c>
       <c r="D2">
-        <v>0.09192677718527885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1260917901929396</v>
+      </c>
+      <c r="E2">
+        <v>0.07084693752778971</v>
+      </c>
+      <c r="F2">
+        <v>0.02722360084410773</v>
+      </c>
+      <c r="G2">
+        <v>-0.06801301078925709</v>
+      </c>
+      <c r="H2">
+        <v>0.08582704603454178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01882473908918035</v>
+        <v>0.01110391789278594</v>
       </c>
       <c r="C3">
-        <v>-0.05922551852024655</v>
+        <v>0.0445967197489819</v>
       </c>
       <c r="D3">
-        <v>0.09981195197867813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.06158252395639863</v>
+      </c>
+      <c r="E3">
+        <v>0.04244923206927939</v>
+      </c>
+      <c r="F3">
+        <v>0.05321487004236291</v>
+      </c>
+      <c r="G3">
+        <v>-0.09654949195630838</v>
+      </c>
+      <c r="H3">
+        <v>0.03211962379788606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05487149388400123</v>
+        <v>0.05335909851547382</v>
       </c>
       <c r="C4">
-        <v>-0.04456126199079478</v>
+        <v>0.06633095865707438</v>
       </c>
       <c r="D4">
-        <v>0.1192267811025582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1431713325172453</v>
+      </c>
+      <c r="E4">
+        <v>0.05801694962571107</v>
+      </c>
+      <c r="F4">
+        <v>0.02352626692542821</v>
+      </c>
+      <c r="G4">
+        <v>0.0359204168338889</v>
+      </c>
+      <c r="H4">
+        <v>-0.02361305031797965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04192858637035222</v>
+        <v>0.03964159043111977</v>
       </c>
       <c r="C6">
-        <v>-0.01371782379481706</v>
+        <v>0.02850543386082735</v>
       </c>
       <c r="D6">
-        <v>0.1377130237415546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1393549608375538</v>
+      </c>
+      <c r="E6">
+        <v>0.03034911443385589</v>
+      </c>
+      <c r="F6">
+        <v>0.01480580358056259</v>
+      </c>
+      <c r="G6">
+        <v>-0.007622109794462619</v>
+      </c>
+      <c r="H6">
+        <v>0.01416543216034242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01851595103635099</v>
+        <v>0.01298594475610897</v>
       </c>
       <c r="C7">
-        <v>-0.018908104020171</v>
+        <v>0.031538929887607</v>
       </c>
       <c r="D7">
-        <v>0.1022723387082817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0987061356092012</v>
+      </c>
+      <c r="E7">
+        <v>0.02410665226721933</v>
+      </c>
+      <c r="F7">
+        <v>0.02225879172377384</v>
+      </c>
+      <c r="G7">
+        <v>0.00109839310106743</v>
+      </c>
+      <c r="H7">
+        <v>0.1120328845048841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009152029745800778</v>
+        <v>0.006326770223867137</v>
       </c>
       <c r="C8">
-        <v>-0.02782324564692103</v>
+        <v>0.03749850941143155</v>
       </c>
       <c r="D8">
-        <v>0.0581789695345476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07736631536528449</v>
+      </c>
+      <c r="E8">
+        <v>0.03476887078817824</v>
+      </c>
+      <c r="F8">
+        <v>0.04450092598080325</v>
+      </c>
+      <c r="G8">
+        <v>-0.01596071564829388</v>
+      </c>
+      <c r="H8">
+        <v>0.0416348492131101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04456028831782968</v>
+        <v>0.04208304861220313</v>
       </c>
       <c r="C9">
-        <v>-0.04378495467182201</v>
+        <v>0.0621558376572274</v>
       </c>
       <c r="D9">
-        <v>0.107760911650164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1209704187281866</v>
+      </c>
+      <c r="E9">
+        <v>0.04269547006297447</v>
+      </c>
+      <c r="F9">
+        <v>0.0049576426793866</v>
+      </c>
+      <c r="G9">
+        <v>0.02677253564598898</v>
+      </c>
+      <c r="H9">
+        <v>0.006891754664318185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1005889416231349</v>
+        <v>0.1436806499304809</v>
       </c>
       <c r="C10">
-        <v>0.1903680958097076</v>
+        <v>-0.1884612590553755</v>
       </c>
       <c r="D10">
-        <v>-0.00465992078625608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004855610276288024</v>
+      </c>
+      <c r="E10">
+        <v>0.04664771498565807</v>
+      </c>
+      <c r="F10">
+        <v>0.02869750357967684</v>
+      </c>
+      <c r="G10">
+        <v>0.02982422951610153</v>
+      </c>
+      <c r="H10">
+        <v>-0.002382738631419927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03211611261455372</v>
+        <v>0.02794748531175198</v>
       </c>
       <c r="C11">
-        <v>-0.03764252843491502</v>
+        <v>0.04420186444011266</v>
       </c>
       <c r="D11">
-        <v>0.0564313968078989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05778430373310257</v>
+      </c>
+      <c r="E11">
+        <v>-0.005204763317847859</v>
+      </c>
+      <c r="F11">
+        <v>0.002855143103454505</v>
+      </c>
+      <c r="G11">
+        <v>0.0001676511808431569</v>
+      </c>
+      <c r="H11">
+        <v>0.04630627589835111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03901487283531824</v>
+        <v>0.03308090751662286</v>
       </c>
       <c r="C12">
-        <v>-0.03816102374475219</v>
+        <v>0.04592045317335182</v>
       </c>
       <c r="D12">
-        <v>0.05994378212419227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05776653801861388</v>
+      </c>
+      <c r="E12">
+        <v>0.001465549291902211</v>
+      </c>
+      <c r="F12">
+        <v>-0.006178933765669012</v>
+      </c>
+      <c r="G12">
+        <v>-0.00173326391299548</v>
+      </c>
+      <c r="H12">
+        <v>0.05982180196883266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01519379783486718</v>
+        <v>0.01646701240460067</v>
       </c>
       <c r="C13">
-        <v>-0.0296426846564988</v>
+        <v>0.03757062801798312</v>
       </c>
       <c r="D13">
-        <v>0.1275495363570293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1497759495338135</v>
+      </c>
+      <c r="E13">
+        <v>0.04006853843340595</v>
+      </c>
+      <c r="F13">
+        <v>0.04011085922379576</v>
+      </c>
+      <c r="G13">
+        <v>-0.007592497900797909</v>
+      </c>
+      <c r="H13">
+        <v>0.09550383545971236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005437724560755978</v>
+        <v>0.006998942671608576</v>
       </c>
       <c r="C14">
-        <v>-0.01676391377224478</v>
+        <v>0.02294504114040457</v>
       </c>
       <c r="D14">
-        <v>0.08472057583427822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09136132717390037</v>
+      </c>
+      <c r="E14">
+        <v>0.03441738399615939</v>
+      </c>
+      <c r="F14">
+        <v>0.0006176978440394327</v>
+      </c>
+      <c r="G14">
+        <v>-0.01064583822563652</v>
+      </c>
+      <c r="H14">
+        <v>0.09520857478652685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002063540902652577</v>
+        <v>0.00131248074979073</v>
       </c>
       <c r="C15">
-        <v>-0.001692094532639553</v>
+        <v>0.01165552660368409</v>
       </c>
       <c r="D15">
-        <v>0.002651365686784398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03518693326674192</v>
+      </c>
+      <c r="E15">
+        <v>0.008402146353632737</v>
+      </c>
+      <c r="F15">
+        <v>-0.0008108644675912574</v>
+      </c>
+      <c r="G15">
+        <v>-0.008284602309356121</v>
+      </c>
+      <c r="H15">
+        <v>0.008926623086695552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0322921386266127</v>
+        <v>0.02851093296762065</v>
       </c>
       <c r="C16">
-        <v>-0.03940417977474</v>
+        <v>0.0441151124952365</v>
       </c>
       <c r="D16">
-        <v>0.06559031025978258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06336293195199395</v>
+      </c>
+      <c r="E16">
+        <v>0.007197722909077427</v>
+      </c>
+      <c r="F16">
+        <v>-0.006024920435778826</v>
+      </c>
+      <c r="G16">
+        <v>0.0005846172291865247</v>
+      </c>
+      <c r="H16">
+        <v>0.05772578609096128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007917571269760511</v>
+        <v>0.005321654925151797</v>
       </c>
       <c r="C19">
-        <v>-0.02504507362990245</v>
+        <v>0.02127433927862199</v>
       </c>
       <c r="D19">
-        <v>0.1515297140475555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1178956633791252</v>
+      </c>
+      <c r="E19">
+        <v>0.06167613183396099</v>
+      </c>
+      <c r="F19">
+        <v>-0.002238299527760751</v>
+      </c>
+      <c r="G19">
+        <v>-0.02442808915313877</v>
+      </c>
+      <c r="H19">
+        <v>0.06689493878423965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01470448148613568</v>
+        <v>0.0147897918662057</v>
       </c>
       <c r="C20">
-        <v>-0.02584150657179115</v>
+        <v>0.03263754928032408</v>
       </c>
       <c r="D20">
-        <v>0.08268626500075939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1001123694005749</v>
+      </c>
+      <c r="E20">
+        <v>0.05284349980270326</v>
+      </c>
+      <c r="F20">
+        <v>0.003043572329104333</v>
+      </c>
+      <c r="G20">
+        <v>0.001410415602389467</v>
+      </c>
+      <c r="H20">
+        <v>0.05678520920170107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008448425878680338</v>
+        <v>0.00984992651428851</v>
       </c>
       <c r="C21">
-        <v>-0.02895316108235202</v>
+        <v>0.03780214067015791</v>
       </c>
       <c r="D21">
-        <v>0.1260141207721162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1388245308854805</v>
+      </c>
+      <c r="E21">
+        <v>0.08219866956665696</v>
+      </c>
+      <c r="F21">
+        <v>0.005502214811338015</v>
+      </c>
+      <c r="G21">
+        <v>0.0209077739903785</v>
+      </c>
+      <c r="H21">
+        <v>0.1125897353152467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00672491614637095</v>
+        <v>0.005548128320583484</v>
       </c>
       <c r="C22">
-        <v>-0.02824093314768934</v>
+        <v>0.04178679105811348</v>
       </c>
       <c r="D22">
-        <v>0.09712575715216092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1528798252793559</v>
+      </c>
+      <c r="E22">
+        <v>0.03164468745312673</v>
+      </c>
+      <c r="F22">
+        <v>0.0890502403300782</v>
+      </c>
+      <c r="G22">
+        <v>-0.07385667048845494</v>
+      </c>
+      <c r="H22">
+        <v>-0.07329595950380932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006840716841785129</v>
+        <v>0.005646280856582242</v>
       </c>
       <c r="C23">
-        <v>-0.02819983593182394</v>
+        <v>0.04225556449750423</v>
       </c>
       <c r="D23">
-        <v>0.09640992191734803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1523079426917574</v>
+      </c>
+      <c r="E23">
+        <v>0.03193013540041816</v>
+      </c>
+      <c r="F23">
+        <v>0.08901501600500583</v>
+      </c>
+      <c r="G23">
+        <v>-0.07292109428419762</v>
+      </c>
+      <c r="H23">
+        <v>-0.07343871008999117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03585112528434942</v>
+        <v>0.0304079265697367</v>
       </c>
       <c r="C24">
-        <v>-0.0483522242853841</v>
+        <v>0.05586064443738677</v>
       </c>
       <c r="D24">
-        <v>0.06394504272876077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06594122577471351</v>
+      </c>
+      <c r="E24">
+        <v>0.01401822527476703</v>
+      </c>
+      <c r="F24">
+        <v>-0.001894673891141385</v>
+      </c>
+      <c r="G24">
+        <v>0.007589151816128674</v>
+      </c>
+      <c r="H24">
+        <v>0.0712002342578576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03926216702436313</v>
+        <v>0.03451706132848845</v>
       </c>
       <c r="C25">
-        <v>-0.04691593066730825</v>
+        <v>0.0530346940496388</v>
       </c>
       <c r="D25">
-        <v>0.06443707253801188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06297981708125866</v>
+      </c>
+      <c r="E25">
+        <v>0.01408243944528379</v>
+      </c>
+      <c r="F25">
+        <v>0.002456112840495389</v>
+      </c>
+      <c r="G25">
+        <v>0.004922345481483307</v>
+      </c>
+      <c r="H25">
+        <v>0.05462869732803258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01827318539597829</v>
+        <v>0.01792330594832217</v>
       </c>
       <c r="C26">
-        <v>-0.007213695506154224</v>
+        <v>0.01709159152455827</v>
       </c>
       <c r="D26">
-        <v>0.05408298151592976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06413906910029231</v>
+      </c>
+      <c r="E26">
+        <v>0.02380561274143218</v>
+      </c>
+      <c r="F26">
+        <v>0.007906908804969246</v>
+      </c>
+      <c r="G26">
+        <v>-0.00293740347787193</v>
+      </c>
+      <c r="H26">
+        <v>0.05969069906364293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1483477784614062</v>
+        <v>0.2029880721043788</v>
       </c>
       <c r="C28">
-        <v>0.265805816404183</v>
+        <v>-0.2515566029688085</v>
       </c>
       <c r="D28">
-        <v>-0.03722609509255605</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01434286632350934</v>
+      </c>
+      <c r="E28">
+        <v>0.07766761738034134</v>
+      </c>
+      <c r="F28">
+        <v>0.01001394543236849</v>
+      </c>
+      <c r="G28">
+        <v>0.05904336008389067</v>
+      </c>
+      <c r="H28">
+        <v>0.01131219607444142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003211186000844685</v>
+        <v>0.004924611970804654</v>
       </c>
       <c r="C29">
-        <v>-0.01707243898237862</v>
+        <v>0.02189421603705043</v>
       </c>
       <c r="D29">
-        <v>0.06928129166983167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08826711184439265</v>
+      </c>
+      <c r="E29">
+        <v>0.03052286786905003</v>
+      </c>
+      <c r="F29">
+        <v>0.01529957880683382</v>
+      </c>
+      <c r="G29">
+        <v>0.007844027186282616</v>
+      </c>
+      <c r="H29">
+        <v>0.1002759773990432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03717065356859984</v>
+        <v>0.04097558485589779</v>
       </c>
       <c r="C30">
-        <v>-0.03363701039111873</v>
+        <v>0.06016105028460202</v>
       </c>
       <c r="D30">
-        <v>0.1654833113625859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1796141271853</v>
+      </c>
+      <c r="E30">
+        <v>0.02140159569577892</v>
+      </c>
+      <c r="F30">
+        <v>0.01592791986243315</v>
+      </c>
+      <c r="G30">
+        <v>-0.01749048948978313</v>
+      </c>
+      <c r="H30">
+        <v>0.0002219515828786932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06538452108756801</v>
+        <v>0.05373987445816903</v>
       </c>
       <c r="C31">
-        <v>-0.05210617269498908</v>
+        <v>0.07349355120253172</v>
       </c>
       <c r="D31">
-        <v>0.06533538060194305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0519602123878445</v>
+      </c>
+      <c r="E31">
+        <v>0.02897482843042471</v>
+      </c>
+      <c r="F31">
+        <v>0.03144786747312122</v>
+      </c>
+      <c r="G31">
+        <v>0.01634977605399561</v>
+      </c>
+      <c r="H31">
+        <v>0.04516131302393762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004745585833523882</v>
+        <v>0.0113580834028524</v>
       </c>
       <c r="C32">
-        <v>-0.01726207412076339</v>
+        <v>0.01753292465138262</v>
       </c>
       <c r="D32">
-        <v>0.06073806970716751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1069925912894291</v>
+      </c>
+      <c r="E32">
+        <v>0.09596149275094125</v>
+      </c>
+      <c r="F32">
+        <v>0.01934943148962478</v>
+      </c>
+      <c r="G32">
+        <v>0.01932373245856167</v>
+      </c>
+      <c r="H32">
+        <v>0.09518992854691213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02311302913690176</v>
+        <v>0.02258431632900085</v>
       </c>
       <c r="C33">
-        <v>-0.03003752534686642</v>
+        <v>0.04385336571698602</v>
       </c>
       <c r="D33">
-        <v>0.1312520795753903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1337476473866845</v>
+      </c>
+      <c r="E33">
+        <v>0.04248585485116405</v>
+      </c>
+      <c r="F33">
+        <v>0.01909243164873842</v>
+      </c>
+      <c r="G33">
+        <v>-0.004046760254229041</v>
+      </c>
+      <c r="H33">
+        <v>0.06613013126647675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03298459800594714</v>
+        <v>0.02638141436127765</v>
       </c>
       <c r="C34">
-        <v>-0.06080843887295942</v>
+        <v>0.06065046934170374</v>
       </c>
       <c r="D34">
-        <v>0.06705206159956985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05550927453421635</v>
+      </c>
+      <c r="E34">
+        <v>-0.003862062610446661</v>
+      </c>
+      <c r="F34">
+        <v>-0.008198986168185282</v>
+      </c>
+      <c r="G34">
+        <v>-0.002372403105426459</v>
+      </c>
+      <c r="H34">
+        <v>0.07576743445820773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000875150627741958</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0008772559735826581</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005704042469781805</v>
+      </c>
+      <c r="E35">
+        <v>0.001316069937971096</v>
+      </c>
+      <c r="F35">
+        <v>0.0007576569939279512</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009801946955615025</v>
+      </c>
+      <c r="H35">
+        <v>0.002284958620253905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01993482544122651</v>
+        <v>0.01898152950939775</v>
       </c>
       <c r="C36">
-        <v>-0.001778486896447015</v>
+        <v>0.01349264986685179</v>
       </c>
       <c r="D36">
-        <v>0.06982581948378599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0765309916815962</v>
+      </c>
+      <c r="E36">
+        <v>0.03115950802133473</v>
+      </c>
+      <c r="F36">
+        <v>0.005967766038706324</v>
+      </c>
+      <c r="G36">
+        <v>0.009639267418006348</v>
+      </c>
+      <c r="H36">
+        <v>0.05186841991142554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02033372586102671</v>
+        <v>0.02022600057126998</v>
       </c>
       <c r="C38">
-        <v>-0.01433128728845132</v>
+        <v>0.01986501930229372</v>
       </c>
       <c r="D38">
-        <v>0.05450628037496192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06132519804686695</v>
+      </c>
+      <c r="E38">
+        <v>0.03469402819100398</v>
+      </c>
+      <c r="F38">
+        <v>-0.005596488832592545</v>
+      </c>
+      <c r="G38">
+        <v>-0.03699068088488822</v>
+      </c>
+      <c r="H38">
+        <v>0.03787481992018506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03820507392577743</v>
+        <v>0.03448451057681594</v>
       </c>
       <c r="C39">
-        <v>-0.04831772900847309</v>
+        <v>0.06667423419881068</v>
       </c>
       <c r="D39">
-        <v>0.08689102191410153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036890353312737</v>
+      </c>
+      <c r="E39">
+        <v>0.008357699309819984</v>
+      </c>
+      <c r="F39">
+        <v>-0.02425859018138252</v>
+      </c>
+      <c r="G39">
+        <v>-0.0001045550928023465</v>
+      </c>
+      <c r="H39">
+        <v>0.08723015961528141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01809316687994508</v>
+        <v>0.01253741741084181</v>
       </c>
       <c r="C40">
-        <v>-0.04382104600288834</v>
+        <v>0.04091364147103213</v>
       </c>
       <c r="D40">
-        <v>0.07247236850737843</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08202225551226626</v>
+      </c>
+      <c r="E40">
+        <v>0.05953491818365924</v>
+      </c>
+      <c r="F40">
+        <v>0.07582391124458088</v>
+      </c>
+      <c r="G40">
+        <v>-0.06854169073977191</v>
+      </c>
+      <c r="H40">
+        <v>0.1584584394765578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02502882555310072</v>
+        <v>0.02351723806946763</v>
       </c>
       <c r="C41">
-        <v>0.002484543821468982</v>
+        <v>0.008193589268881817</v>
       </c>
       <c r="D41">
-        <v>0.064365713680647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05562889149659973</v>
+      </c>
+      <c r="E41">
+        <v>0.05359333913227669</v>
+      </c>
+      <c r="F41">
+        <v>0.00419887051576218</v>
+      </c>
+      <c r="G41">
+        <v>-0.01719666210204276</v>
+      </c>
+      <c r="H41">
+        <v>0.0451034957555205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02901477315592806</v>
+        <v>0.02320674808689521</v>
       </c>
       <c r="C43">
-        <v>-0.008902638503796124</v>
+        <v>0.01820296648706506</v>
       </c>
       <c r="D43">
-        <v>0.1007793847747097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08297898436204498</v>
+      </c>
+      <c r="E43">
+        <v>0.03109759899316306</v>
+      </c>
+      <c r="F43">
+        <v>0.006640395256230156</v>
+      </c>
+      <c r="G43">
+        <v>-0.01572097456231193</v>
+      </c>
+      <c r="H43">
+        <v>0.06964342651886921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01395417149419795</v>
+        <v>0.01647421636733709</v>
       </c>
       <c r="C44">
-        <v>-0.04617984418118463</v>
+        <v>0.04364424353872126</v>
       </c>
       <c r="D44">
-        <v>0.08145186308389667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.103577263182549</v>
+      </c>
+      <c r="E44">
+        <v>0.06308353831135538</v>
+      </c>
+      <c r="F44">
+        <v>0.01445149206653576</v>
+      </c>
+      <c r="G44">
+        <v>-0.006272608060980693</v>
+      </c>
+      <c r="H44">
+        <v>0.07214685254636381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01517992055800005</v>
+        <v>0.01327293211947762</v>
       </c>
       <c r="C46">
-        <v>-0.01932356024257684</v>
+        <v>0.02862889091526077</v>
       </c>
       <c r="D46">
-        <v>0.07760951667442614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08534638809422689</v>
+      </c>
+      <c r="E46">
+        <v>0.03515077464113362</v>
+      </c>
+      <c r="F46">
+        <v>-0.01139811264549156</v>
+      </c>
+      <c r="G46">
+        <v>0.0138620655875301</v>
+      </c>
+      <c r="H46">
+        <v>0.1049704601254437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09555770604116462</v>
+        <v>0.08078458923047044</v>
       </c>
       <c r="C47">
-        <v>-0.07014601196268483</v>
+        <v>0.09103003045679503</v>
       </c>
       <c r="D47">
-        <v>0.0465724998875072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03474419815379834</v>
+      </c>
+      <c r="E47">
+        <v>0.03685201182092654</v>
+      </c>
+      <c r="F47">
+        <v>0.01894429415001198</v>
+      </c>
+      <c r="G47">
+        <v>0.03078703057342692</v>
+      </c>
+      <c r="H47">
+        <v>0.0239431526295045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01365693173080998</v>
+        <v>0.0159775039893376</v>
       </c>
       <c r="C48">
-        <v>-0.01229224120379327</v>
+        <v>0.01827204880847947</v>
       </c>
       <c r="D48">
-        <v>0.06180290551303871</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07259040344117054</v>
+      </c>
+      <c r="E48">
+        <v>0.05026073459910065</v>
+      </c>
+      <c r="F48">
+        <v>0.003963812771070597</v>
+      </c>
+      <c r="G48">
+        <v>0.006816707321466167</v>
+      </c>
+      <c r="H48">
+        <v>0.05823068496649754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06034749925061498</v>
+        <v>0.05159852937792809</v>
       </c>
       <c r="C50">
-        <v>-0.05109703874942751</v>
+        <v>0.06677833237250973</v>
       </c>
       <c r="D50">
-        <v>0.06369902215231728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05478451094503557</v>
+      </c>
+      <c r="E50">
+        <v>0.04149175621936789</v>
+      </c>
+      <c r="F50">
+        <v>0.04041104011821878</v>
+      </c>
+      <c r="G50">
+        <v>-0.01951803043429553</v>
+      </c>
+      <c r="H50">
+        <v>0.04209897029351458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01084863677307805</v>
+        <v>0.01081603099897079</v>
       </c>
       <c r="C51">
-        <v>-0.01500600703500048</v>
+        <v>0.02051919967603812</v>
       </c>
       <c r="D51">
-        <v>0.07745069437974551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08949958739571727</v>
+      </c>
+      <c r="E51">
+        <v>0.01529367953245602</v>
+      </c>
+      <c r="F51">
+        <v>0.006763127065095543</v>
+      </c>
+      <c r="G51">
+        <v>-0.01274899742882639</v>
+      </c>
+      <c r="H51">
+        <v>0.06700763558683989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08939822644768</v>
+        <v>0.08519028445368193</v>
       </c>
       <c r="C53">
-        <v>-0.08566771104729975</v>
+        <v>0.1015193324626246</v>
       </c>
       <c r="D53">
-        <v>0.001777048312385078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01424174305472857</v>
+      </c>
+      <c r="E53">
+        <v>0.11102818316828</v>
+      </c>
+      <c r="F53">
+        <v>0.04624283179497525</v>
+      </c>
+      <c r="G53">
+        <v>0.08328515402980241</v>
+      </c>
+      <c r="H53">
+        <v>0.008792974130822613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0286813770284083</v>
+        <v>0.02519441258516957</v>
       </c>
       <c r="C54">
-        <v>-0.02624770314959588</v>
+        <v>0.03469586710880181</v>
       </c>
       <c r="D54">
-        <v>0.0889726341631705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08775629940019719</v>
+      </c>
+      <c r="E54">
+        <v>0.03841604822755915</v>
+      </c>
+      <c r="F54">
+        <v>-0.006960145676396965</v>
+      </c>
+      <c r="G54">
+        <v>-0.02120499383424168</v>
+      </c>
+      <c r="H54">
+        <v>0.1102908098928735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09279371989017025</v>
+        <v>0.0837244195018209</v>
       </c>
       <c r="C55">
-        <v>-0.05842205601938454</v>
+        <v>0.08073449872250812</v>
       </c>
       <c r="D55">
-        <v>-0.01700442519332096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007772343852696342</v>
+      </c>
+      <c r="E55">
+        <v>0.05971480458072086</v>
+      </c>
+      <c r="F55">
+        <v>0.04149923325650089</v>
+      </c>
+      <c r="G55">
+        <v>0.04330990560173659</v>
+      </c>
+      <c r="H55">
+        <v>-0.001375294013083443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1401763983319685</v>
+        <v>0.1278654586017311</v>
       </c>
       <c r="C56">
-        <v>-0.09457253167841705</v>
+        <v>0.1259731301848897</v>
       </c>
       <c r="D56">
-        <v>-0.007031782584948313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.009914107591260813</v>
+      </c>
+      <c r="E56">
+        <v>0.06242514310510439</v>
+      </c>
+      <c r="F56">
+        <v>0.027979898647306</v>
+      </c>
+      <c r="G56">
+        <v>0.03927507037865238</v>
+      </c>
+      <c r="H56">
+        <v>0.003925921403366436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01725570996805716</v>
+        <v>0.02542920425405703</v>
       </c>
       <c r="C58">
-        <v>0.006221112862369938</v>
+        <v>0.02822646437184461</v>
       </c>
       <c r="D58">
-        <v>0.2977837696670739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3533100147783997</v>
+      </c>
+      <c r="E58">
+        <v>0.1874771583854855</v>
+      </c>
+      <c r="F58">
+        <v>0.1275962529111289</v>
+      </c>
+      <c r="G58">
+        <v>-0.233915665647777</v>
+      </c>
+      <c r="H58">
+        <v>-0.3976215481192015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1405512444557627</v>
+        <v>0.1800584118853875</v>
       </c>
       <c r="C59">
-        <v>0.1911545600745568</v>
+        <v>-0.1674366289793684</v>
       </c>
       <c r="D59">
-        <v>0.02942531820895282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05155638345197285</v>
+      </c>
+      <c r="E59">
+        <v>0.01712859203611559</v>
+      </c>
+      <c r="F59">
+        <v>-0.0431667431965039</v>
+      </c>
+      <c r="G59">
+        <v>-0.002563120931685477</v>
+      </c>
+      <c r="H59">
+        <v>-0.02539258372614166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2489098896133541</v>
+        <v>0.2294965001895392</v>
       </c>
       <c r="C60">
-        <v>-0.06186813513388358</v>
+        <v>0.1059823693325425</v>
       </c>
       <c r="D60">
-        <v>0.2146015092854631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1234617931772616</v>
+      </c>
+      <c r="E60">
+        <v>-0.3589317263250009</v>
+      </c>
+      <c r="F60">
+        <v>0.02341929279243771</v>
+      </c>
+      <c r="G60">
+        <v>0.03678850570170433</v>
+      </c>
+      <c r="H60">
+        <v>-0.1308798429188555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04534396131162217</v>
+        <v>0.03952173064286005</v>
       </c>
       <c r="C61">
-        <v>-0.04873918636558702</v>
+        <v>0.0618728750410923</v>
       </c>
       <c r="D61">
-        <v>0.09845296351601064</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09213663619502689</v>
+      </c>
+      <c r="E61">
+        <v>0.002382130735067202</v>
+      </c>
+      <c r="F61">
+        <v>-0.01809717891849909</v>
+      </c>
+      <c r="G61">
+        <v>0.006511395165697264</v>
+      </c>
+      <c r="H61">
+        <v>0.07636082111068214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01669904843796098</v>
+        <v>0.01449349127062726</v>
       </c>
       <c r="C63">
-        <v>-0.02129198943236383</v>
+        <v>0.0319862904940004</v>
       </c>
       <c r="D63">
-        <v>0.05894631785409073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06686943907763668</v>
+      </c>
+      <c r="E63">
+        <v>0.02896982557214883</v>
+      </c>
+      <c r="F63">
+        <v>0.02007466779277965</v>
+      </c>
+      <c r="G63">
+        <v>-0.001055938676304083</v>
+      </c>
+      <c r="H63">
+        <v>0.0475871258027537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05777269456207928</v>
+        <v>0.05142510501228873</v>
       </c>
       <c r="C64">
-        <v>-0.06425790334984224</v>
+        <v>0.08142896851470974</v>
       </c>
       <c r="D64">
-        <v>0.05752542213370847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05445718214413107</v>
+      </c>
+      <c r="E64">
+        <v>0.02408785252675602</v>
+      </c>
+      <c r="F64">
+        <v>-0.01283936329357729</v>
+      </c>
+      <c r="G64">
+        <v>0.05564602325570363</v>
+      </c>
+      <c r="H64">
+        <v>0.05605859631850977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04930078188590326</v>
+        <v>0.0454735535949076</v>
       </c>
       <c r="C65">
-        <v>-0.007369491330067481</v>
+        <v>0.02768032788509</v>
       </c>
       <c r="D65">
-        <v>0.1184718902276813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1202351788321638</v>
+      </c>
+      <c r="E65">
+        <v>0.003578302289748715</v>
+      </c>
+      <c r="F65">
+        <v>0.01677893736655294</v>
+      </c>
+      <c r="G65">
+        <v>-0.03037956081435492</v>
+      </c>
+      <c r="H65">
+        <v>-0.02672321763534304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04265738716446291</v>
+        <v>0.03842353822001197</v>
       </c>
       <c r="C66">
-        <v>-0.0552522789408036</v>
+        <v>0.07609586207246662</v>
       </c>
       <c r="D66">
-        <v>0.1081431244066875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1302889568820705</v>
+      </c>
+      <c r="E66">
+        <v>0.01453966275826872</v>
+      </c>
+      <c r="F66">
+        <v>-0.01239759929166924</v>
+      </c>
+      <c r="G66">
+        <v>-0.01449355839173899</v>
+      </c>
+      <c r="H66">
+        <v>0.05199376331072925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04025024621159177</v>
+        <v>0.03775269158864964</v>
       </c>
       <c r="C67">
-        <v>-0.01858185729682549</v>
+        <v>0.02615424798502614</v>
       </c>
       <c r="D67">
-        <v>0.02509733463881776</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02127014349222022</v>
+      </c>
+      <c r="E67">
+        <v>0.01307194363153468</v>
+      </c>
+      <c r="F67">
+        <v>-0.004835534900267607</v>
+      </c>
+      <c r="G67">
+        <v>-0.03255538735638278</v>
+      </c>
+      <c r="H67">
+        <v>0.03754979458373952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1612586418309841</v>
+        <v>0.1971805129954423</v>
       </c>
       <c r="C68">
-        <v>0.2358531627973041</v>
+        <v>-0.1955109155222791</v>
       </c>
       <c r="D68">
-        <v>-0.01644142751889573</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01327331746312239</v>
+      </c>
+      <c r="E68">
+        <v>0.04980723914659914</v>
+      </c>
+      <c r="F68">
+        <v>0.03365117802377852</v>
+      </c>
+      <c r="G68">
+        <v>-0.008239183472458856</v>
+      </c>
+      <c r="H68">
+        <v>-0.005711743861911111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08651918716528775</v>
+        <v>0.07309567505347063</v>
       </c>
       <c r="C69">
-        <v>-0.08392233088336622</v>
+        <v>0.09727858391390844</v>
       </c>
       <c r="D69">
-        <v>0.07011230788401485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04968852255917713</v>
+      </c>
+      <c r="E69">
+        <v>0.02207674421811496</v>
+      </c>
+      <c r="F69">
+        <v>0.007223940376837888</v>
+      </c>
+      <c r="G69">
+        <v>0.02602194914218567</v>
+      </c>
+      <c r="H69">
+        <v>0.03555132915660553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1407761955506018</v>
+        <v>0.1850083685739605</v>
       </c>
       <c r="C71">
-        <v>0.2393112864693762</v>
+        <v>-0.2083397792902591</v>
       </c>
       <c r="D71">
-        <v>0.01571416771250157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03877575961259565</v>
+      </c>
+      <c r="E71">
+        <v>0.05440270039543845</v>
+      </c>
+      <c r="F71">
+        <v>0.03438520650908131</v>
+      </c>
+      <c r="G71">
+        <v>0.01250365966266907</v>
+      </c>
+      <c r="H71">
+        <v>0.02666440911334611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09688406704458295</v>
+        <v>0.09826487974031745</v>
       </c>
       <c r="C72">
-        <v>-0.04346052792931451</v>
+        <v>0.07215229974468813</v>
       </c>
       <c r="D72">
-        <v>0.08955675985145037</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09567952755686185</v>
+      </c>
+      <c r="E72">
+        <v>-0.03159539079398992</v>
+      </c>
+      <c r="F72">
+        <v>0.03967989801348311</v>
+      </c>
+      <c r="G72">
+        <v>0.0347363536818199</v>
+      </c>
+      <c r="H72">
+        <v>0.03507693073611274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2644444325306048</v>
+        <v>0.241301473055221</v>
       </c>
       <c r="C73">
-        <v>-0.02341170697256068</v>
+        <v>0.0918945314242923</v>
       </c>
       <c r="D73">
-        <v>0.3317822767438866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1680675963862188</v>
+      </c>
+      <c r="E73">
+        <v>-0.665892069844465</v>
+      </c>
+      <c r="F73">
+        <v>0.002069222207691526</v>
+      </c>
+      <c r="G73">
+        <v>0.03266941631701749</v>
+      </c>
+      <c r="H73">
+        <v>-0.1603024915309978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1095863112434506</v>
+        <v>0.09751896724276263</v>
       </c>
       <c r="C74">
-        <v>-0.0683975671254881</v>
+        <v>0.09168181916425236</v>
       </c>
       <c r="D74">
-        <v>0.004281776274465802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004076271354389662</v>
+      </c>
+      <c r="E74">
+        <v>0.07799147364981802</v>
+      </c>
+      <c r="F74">
+        <v>0.06552912403520723</v>
+      </c>
+      <c r="G74">
+        <v>0.05734734527604801</v>
+      </c>
+      <c r="H74">
+        <v>-0.02885852907950227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2478961866634987</v>
+        <v>0.2249049841891641</v>
       </c>
       <c r="C75">
-        <v>-0.1281716267607882</v>
+        <v>0.1680317239229221</v>
       </c>
       <c r="D75">
-        <v>-0.07371414198274544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09695091658284596</v>
+      </c>
+      <c r="E75">
+        <v>0.1045265583706777</v>
+      </c>
+      <c r="F75">
+        <v>-0.01635260498441391</v>
+      </c>
+      <c r="G75">
+        <v>0.03958312464759883</v>
+      </c>
+      <c r="H75">
+        <v>-0.08618136565876434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1401848683624029</v>
+        <v>0.1250993135568674</v>
       </c>
       <c r="C76">
-        <v>-0.08883180228674592</v>
+        <v>0.114138069541466</v>
       </c>
       <c r="D76">
-        <v>-0.01296835876282285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01096944873657168</v>
+      </c>
+      <c r="E76">
+        <v>0.1184507532020416</v>
+      </c>
+      <c r="F76">
+        <v>0.01702423142295791</v>
+      </c>
+      <c r="G76">
+        <v>0.04010781215260564</v>
+      </c>
+      <c r="H76">
+        <v>0.01621539605565104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06239874141414232</v>
+        <v>0.05875007625462949</v>
       </c>
       <c r="C77">
-        <v>-0.05948175439929704</v>
+        <v>0.07288577963395169</v>
       </c>
       <c r="D77">
-        <v>0.03419747145018313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1306775796350675</v>
+      </c>
+      <c r="E77">
+        <v>0.2258962003631101</v>
+      </c>
+      <c r="F77">
+        <v>-0.2917281091201919</v>
+      </c>
+      <c r="G77">
+        <v>-0.2911685924557212</v>
+      </c>
+      <c r="H77">
+        <v>-0.3481702378033964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04078491690008233</v>
+        <v>0.0422656091891517</v>
       </c>
       <c r="C78">
-        <v>-0.0527200015667046</v>
+        <v>0.06674781942718709</v>
       </c>
       <c r="D78">
-        <v>0.1182390366042754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1331064461073081</v>
+      </c>
+      <c r="E78">
+        <v>0.01539729588414223</v>
+      </c>
+      <c r="F78">
+        <v>0.01033293166743028</v>
+      </c>
+      <c r="G78">
+        <v>0.01169793431014843</v>
+      </c>
+      <c r="H78">
+        <v>0.0258951287876758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02609598585772132</v>
+        <v>0.04582194560750696</v>
       </c>
       <c r="C79">
-        <v>-0.08223683748912283</v>
+        <v>0.09357220010834587</v>
       </c>
       <c r="D79">
-        <v>-0.06596916978520818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02258819878253228</v>
+      </c>
+      <c r="E79">
+        <v>0.2243868663663198</v>
+      </c>
+      <c r="F79">
+        <v>0.1411276172206311</v>
+      </c>
+      <c r="G79">
+        <v>0.733495271705681</v>
+      </c>
+      <c r="H79">
+        <v>-0.370163794236569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03191417729404516</v>
+        <v>0.0248699476669089</v>
       </c>
       <c r="C80">
-        <v>-0.03131193625545776</v>
+        <v>0.04645314898821245</v>
       </c>
       <c r="D80">
-        <v>0.01865070368656583</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02421767841494538</v>
+      </c>
+      <c r="E80">
+        <v>0.0226376545967424</v>
+      </c>
+      <c r="F80">
+        <v>0.004026862910346671</v>
+      </c>
+      <c r="G80">
+        <v>-0.03204061060922056</v>
+      </c>
+      <c r="H80">
+        <v>0.01212006568707301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1445544301994841</v>
+        <v>0.1252724347069785</v>
       </c>
       <c r="C81">
-        <v>-0.09673034402950746</v>
+        <v>0.1208191982769532</v>
       </c>
       <c r="D81">
-        <v>-0.0649065368310628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07357469636363898</v>
+      </c>
+      <c r="E81">
+        <v>0.1115867997218819</v>
+      </c>
+      <c r="F81">
+        <v>0.02296027561329243</v>
+      </c>
+      <c r="G81">
+        <v>0.04155072942811746</v>
+      </c>
+      <c r="H81">
+        <v>0.001748878569028253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3150465129215372</v>
+        <v>0.2538354514612819</v>
       </c>
       <c r="C82">
-        <v>-0.2559906708244776</v>
+        <v>0.2642688163679159</v>
       </c>
       <c r="D82">
-        <v>-0.2315626696835199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2409681844597</v>
+      </c>
+      <c r="E82">
+        <v>-0.01393791283736583</v>
+      </c>
+      <c r="F82">
+        <v>0.0475651191637968</v>
+      </c>
+      <c r="G82">
+        <v>0.04599832606921844</v>
+      </c>
+      <c r="H82">
+        <v>0.4720355324034269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02820603854027488</v>
+        <v>0.02064901545936818</v>
       </c>
       <c r="C83">
-        <v>-0.05046380839150662</v>
+        <v>0.05166325455864688</v>
       </c>
       <c r="D83">
-        <v>0.04540831287482557</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04502859803717824</v>
+      </c>
+      <c r="E83">
+        <v>0.01786795460685723</v>
+      </c>
+      <c r="F83">
+        <v>-0.05389568906941344</v>
+      </c>
+      <c r="G83">
+        <v>-0.04629582186613383</v>
+      </c>
+      <c r="H83">
+        <v>0.0005880651683638714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006651346074976279</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00458135422459634</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01846519608215356</v>
+      </c>
+      <c r="E84">
+        <v>0.01922864977797714</v>
+      </c>
+      <c r="F84">
+        <v>0.01007026583187844</v>
+      </c>
+      <c r="G84">
+        <v>-0.006225167288408701</v>
+      </c>
+      <c r="H84">
+        <v>0.002664001425539653</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1785121047097872</v>
+        <v>0.1558664468320787</v>
       </c>
       <c r="C85">
-        <v>-0.1004692512272667</v>
+        <v>0.1374110487035707</v>
       </c>
       <c r="D85">
-        <v>-0.02828265839151563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05572499635139324</v>
+      </c>
+      <c r="E85">
+        <v>0.05231107433225597</v>
+      </c>
+      <c r="F85">
+        <v>0.02308402098130967</v>
+      </c>
+      <c r="G85">
+        <v>0.09027321576003215</v>
+      </c>
+      <c r="H85">
+        <v>-0.0695512542106938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01544966598317373</v>
+        <v>0.02000732669505074</v>
       </c>
       <c r="C86">
-        <v>-0.03585858798108575</v>
+        <v>0.02508315413940066</v>
       </c>
       <c r="D86">
-        <v>0.127907141359119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.121096727700031</v>
+      </c>
+      <c r="E86">
+        <v>0.003478550705027292</v>
+      </c>
+      <c r="F86">
+        <v>-0.02054244101961779</v>
+      </c>
+      <c r="G86">
+        <v>-0.008571244800179083</v>
+      </c>
+      <c r="H86">
+        <v>0.07104980480778225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02798391706655742</v>
+        <v>0.03514417453975844</v>
       </c>
       <c r="C87">
-        <v>-0.006761305544565908</v>
+        <v>0.02454224423861825</v>
       </c>
       <c r="D87">
-        <v>0.09828066714712264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1373400813160292</v>
+      </c>
+      <c r="E87">
+        <v>0.07540542522240744</v>
+      </c>
+      <c r="F87">
+        <v>-0.00468708161276158</v>
+      </c>
+      <c r="G87">
+        <v>-0.01903198745560853</v>
+      </c>
+      <c r="H87">
+        <v>0.02501635798537755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07773087728271576</v>
+        <v>0.06959857488591968</v>
       </c>
       <c r="C88">
-        <v>-0.03376571738866108</v>
+        <v>0.05382426296566697</v>
       </c>
       <c r="D88">
-        <v>0.04929039963154343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02871778514126763</v>
+      </c>
+      <c r="E88">
+        <v>-0.002115531494098099</v>
+      </c>
+      <c r="F88">
+        <v>0.02013413116537729</v>
+      </c>
+      <c r="G88">
+        <v>0.009197659743894691</v>
+      </c>
+      <c r="H88">
+        <v>0.03222428268556846</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2098749644485325</v>
+        <v>0.2839791403600991</v>
       </c>
       <c r="C89">
-        <v>0.3939271733283841</v>
+        <v>-0.3533813076772991</v>
       </c>
       <c r="D89">
-        <v>-0.03265440300939858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002593855715305681</v>
+      </c>
+      <c r="E89">
+        <v>0.0435216264409965</v>
+      </c>
+      <c r="F89">
+        <v>-0.03984628563448466</v>
+      </c>
+      <c r="G89">
+        <v>0.04836696074002639</v>
+      </c>
+      <c r="H89">
+        <v>0.0756290469166703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1959072742825387</v>
+        <v>0.240590945983694</v>
       </c>
       <c r="C90">
-        <v>0.3031993152353237</v>
+        <v>-0.2492049887579191</v>
       </c>
       <c r="D90">
-        <v>-0.01477071194573257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01808350666295184</v>
+      </c>
+      <c r="E90">
+        <v>0.05193282447898216</v>
+      </c>
+      <c r="F90">
+        <v>0.003411841451201576</v>
+      </c>
+      <c r="G90">
+        <v>-0.05646639026222407</v>
+      </c>
+      <c r="H90">
+        <v>0.04305622906566578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1857262366819359</v>
+        <v>0.1564797048915452</v>
       </c>
       <c r="C91">
-        <v>-0.1413763660221928</v>
+        <v>0.1588803528387177</v>
       </c>
       <c r="D91">
-        <v>-0.08410750894138019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08555037328676002</v>
+      </c>
+      <c r="E91">
+        <v>0.1077696960696361</v>
+      </c>
+      <c r="F91">
+        <v>0.0186685556550993</v>
+      </c>
+      <c r="G91">
+        <v>0.08632523392360442</v>
+      </c>
+      <c r="H91">
+        <v>-0.07750100266860399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1707635750160369</v>
+        <v>0.2257807989277356</v>
       </c>
       <c r="C92">
-        <v>0.2966988682810881</v>
+        <v>-0.2709220431655634</v>
       </c>
       <c r="D92">
-        <v>0.004120243187919993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03045786818188864</v>
+      </c>
+      <c r="E92">
+        <v>0.09504633345340339</v>
+      </c>
+      <c r="F92">
+        <v>-0.004573991846022713</v>
+      </c>
+      <c r="G92">
+        <v>-0.02269935339684337</v>
+      </c>
+      <c r="H92">
+        <v>0.04153212137380848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2195629260347924</v>
+        <v>0.2636226795782827</v>
       </c>
       <c r="C93">
-        <v>0.319164843067194</v>
+        <v>-0.2635549372472389</v>
       </c>
       <c r="D93">
-        <v>0.003630215111041877</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003112778750071696</v>
+      </c>
+      <c r="E93">
+        <v>0.005157345607810831</v>
+      </c>
+      <c r="F93">
+        <v>0.01595382963086179</v>
+      </c>
+      <c r="G93">
+        <v>0.007435867891173041</v>
+      </c>
+      <c r="H93">
+        <v>-0.006930300734502262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3980276567192179</v>
+        <v>0.3366537761544778</v>
       </c>
       <c r="C94">
-        <v>-0.2115844185520607</v>
+        <v>0.2647437754139119</v>
       </c>
       <c r="D94">
-        <v>-0.4496224125754645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.43086040520766</v>
+      </c>
+      <c r="E94">
+        <v>0.08510901869876002</v>
+      </c>
+      <c r="F94">
+        <v>0.001788544814709677</v>
+      </c>
+      <c r="G94">
+        <v>-0.43558102287848</v>
+      </c>
+      <c r="H94">
+        <v>-0.1955729797142517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07781129383080045</v>
+        <v>0.06785469748422382</v>
       </c>
       <c r="C95">
-        <v>-0.06142258536484201</v>
+        <v>0.06745627883982269</v>
       </c>
       <c r="D95">
-        <v>0.1020530900457847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07801690790737642</v>
+      </c>
+      <c r="E95">
+        <v>0.01611031139330641</v>
+      </c>
+      <c r="F95">
+        <v>-0.9012930114662405</v>
+      </c>
+      <c r="G95">
+        <v>0.1735166247014003</v>
+      </c>
+      <c r="H95">
+        <v>0.02997303561825812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1701780003607981</v>
+        <v>0.1622527695024881</v>
       </c>
       <c r="C98">
-        <v>-0.02401704257118286</v>
+        <v>0.06729387774557839</v>
       </c>
       <c r="D98">
-        <v>0.1813282738912893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1263072629563257</v>
+      </c>
+      <c r="E98">
+        <v>-0.3111575189717907</v>
+      </c>
+      <c r="F98">
+        <v>0.04651388341898821</v>
+      </c>
+      <c r="G98">
+        <v>0.05335707770878245</v>
+      </c>
+      <c r="H98">
+        <v>-0.05614646336142924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003127757032579269</v>
+        <v>0.00500728386017047</v>
       </c>
       <c r="C101">
-        <v>-0.01686700798420596</v>
+        <v>0.02115972603912389</v>
       </c>
       <c r="D101">
-        <v>0.06989414558779887</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08815790671913544</v>
+      </c>
+      <c r="E101">
+        <v>0.03102353380004405</v>
+      </c>
+      <c r="F101">
+        <v>0.01455502680402657</v>
+      </c>
+      <c r="G101">
+        <v>0.008457237783451515</v>
+      </c>
+      <c r="H101">
+        <v>0.1005086640258425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1285049844614466</v>
+        <v>0.1046916193338733</v>
       </c>
       <c r="C102">
-        <v>-0.1124971764722201</v>
+        <v>0.1197760850097151</v>
       </c>
       <c r="D102">
-        <v>-0.04852190015897667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06482629633185552</v>
+      </c>
+      <c r="E102">
+        <v>0.02573144111373065</v>
+      </c>
+      <c r="F102">
+        <v>-0.02520920345171765</v>
+      </c>
+      <c r="G102">
+        <v>0.02998222941869595</v>
+      </c>
+      <c r="H102">
+        <v>0.04464715512880304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
